--- a/matlab/sri-ipb1-41.xlsx
+++ b/matlab/sri-ipb1-41.xlsx
@@ -930,7 +930,7 @@
   <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -1034,7 +1034,7 @@
         <v>0.9</v>
       </c>
       <c r="L2" s="2">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="M2" s="2">
         <v>187</v>
